--- a/wykres_per_rok.xlsx
+++ b/wykres_per_rok.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia.wlastowska\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia.wlastowska\Desktop\file_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55EF4A86-F1CA-4219-A7AD-EFF6D990EF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D797D6-3B55-4C5A-B1E4-47496C83E370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="3030" windowWidth="29040" windowHeight="15840" xr2:uid="{26C7B4FD-8147-41F0-B76B-54DBA328CD6B}"/>
   </bookViews>
@@ -32,10 +32,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -110,7 +106,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -123,14 +119,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pl-PL"/>
+              <a:rPr lang="pl-PL" sz="1800"/>
               <a:t>Suma liczby</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:rPr lang="pl-PL" sz="1800" baseline="0"/>
               <a:t> odtworzeń wszystkich utworów w zależności od roku ich powstania</a:t>
             </a:r>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="pl-PL" sz="1800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -147,7 +143,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -175,7 +171,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -186,11 +182,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -201,8 +197,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.1040814277250273E-2"/>
-                  <c:y val="-8.4915709997244321E-2"/>
+                  <c:x val="-4.2136404621010301E-2"/>
+                  <c:y val="-0.14541601194908446"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -223,7 +219,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.5729940948543164E-2"/>
+                  <c:x val="-7.4215289886303604E-2"/>
                   <c:y val="-5.466555902132425E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -245,8 +241,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.0251989229743095E-2"/>
-                  <c:y val="-5.001168964041347E-2"/>
+                  <c:x val="-5.5590254042383304E-2"/>
+                  <c:y val="-7.7934905925878234E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -267,8 +263,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.1347579573503032E-2"/>
-                  <c:y val="-4.30308855690473E-2"/>
+                  <c:x val="-5.2303483011103248E-2"/>
+                  <c:y val="-8.9569579378155101E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -286,11 +282,33 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.5669685204975542E-2"/>
+                  <c:y val="-5.7626445997525776E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-B7D0-408F-B351-B232809E60B0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.9296085792142955E-2"/>
-                  <c:y val="4.0738763287346665E-2"/>
+                  <c:x val="-2.9296085792142875E-2"/>
+                  <c:y val="5.2373436739623705E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -308,11 +326,55 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.814023970481518E-2"/>
+                  <c:y val="-5.2972576616614996E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-B7D0-408F-B351-B232809E60B0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8419613517134859E-2"/>
+                  <c:y val="-6.6934184759347343E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-B7D0-408F-B351-B232809E60B0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.2952621152450622E-2"/>
-                  <c:y val="-2.2088473354948786E-2"/>
+                  <c:x val="-7.6099705277570998E-2"/>
+                  <c:y val="5.8347429305158982E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -343,7 +405,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -499,7 +561,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -512,7 +574,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL" sz="1200"/>
+                  <a:rPr lang="pl-PL" sz="1600"/>
                   <a:t>Rok powstania utworów</a:t>
                 </a:r>
               </a:p>
@@ -531,7 +593,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -569,7 +631,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -619,7 +681,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -632,14 +694,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL" sz="1400"/>
+                  <a:rPr lang="pl-PL" sz="1600"/>
                   <a:t>Liczba</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="pl-PL" sz="1400" baseline="0"/>
+                  <a:rPr lang="pl-PL" sz="1600" baseline="0"/>
                   <a:t> odtworzeń utworów w serwisie FMA</a:t>
                 </a:r>
-                <a:endParaRPr lang="pl-PL" sz="1400"/>
+                <a:endParaRPr lang="pl-PL" sz="1600"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -656,7 +718,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -688,7 +750,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -760,12 +822,9 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1643,7 +1702,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
